--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_258.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_258.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F', 'F/7', 'D:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(10.46, 19.06)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(15.300272, 18.887755)]</t>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:02.020000', '0:01:11.860000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>schubert-winterreise_129</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+      <c r="D3" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:03.660000', '0:00:07.560000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:00:06.800000', '0:00:12.660000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:02.580000', '0:00:07.080000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:09.560000', '0:00:25.140000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46)]</t>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:01:14.500000', '0:01:20.420000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(120.22, 121.92)]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(66.98, 83.84)]</t>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4583333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(128.76, 134.6)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(5.20815, 14.983242)]</t>
+          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(123.22, 127.58)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.465952, 8.50033)]</t>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>[('0:00:19.435000', '0:00:32.669000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1136044880785414</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.392156862745098</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.5, 3.9)]</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:03.599751', '0:00:07.761836')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_57</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4526315789473684</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(9.6, 25.04)]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(2.58, 7.08)]</t>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:15.687550', '0:02:19.228594')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[('0:00:18.660000', '0:00:21.280000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:05.700000', '0:00:12.080000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (75.8, 82.44)]</t>
+          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02), (32.98, 35.26)]</t>
+          <t>[('0:00:13.420000', '0:00:17.820000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:03.700000', '0:00:07.500000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(70.98, 87.2)]</t>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.600000', '0:00:40.540000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[('0:02:38.280000', '0:02:43.560000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:40.020000', '0:02:44.860000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(84.16, 92.42)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(111.46, 124.8)]</t>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:16.380000', '0:01:35.260000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(62.1, 71.78)]</t>
+          <t>[['G:maj', 'C:maj', 'D:9/F#', 'G:maj', 'A:7/E', 'D:min', 'G:(3,5,b7,b9)', 'C:maj', 'F:maj', 'C:maj/E', 'G:min/D', 'A:maj/C#', 'A#:maj/D', 'C:7/E', 'F:maj', 'D:min7/F', 'D:(3,5,b7,b9)/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.38, 5.3)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(12.82, 24.9)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:01.140000', '0:01:23.520000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
